--- a/biology/Zoologie/Hydrorion/Hydrorion.xlsx
+++ b/biology/Zoologie/Hydrorion/Hydrorion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrorion brachypterygius
 Hydrorion (qui signifie « chasseur d'eau ») est un genre éteint de plésiosaures qui a été découvert dans la formation géologique des argiles à Posidonies du Jurassique inférieur (Toarcien) d'Allemagne. Il n'est représenté que par une seule espèce, Hydrorion brachypterygius. 
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hydrorion a été créé en 2007 par la paléontologue allemande Franziska Grossmann (d)[2].
-L'espèce Hydrorion brachypterygius a été initialement décrite en 1923 par le paléontologue allemand Friedrich von Huene (1875-1969) sous le protonyme de Plesiosaurus brachypterygius[1],[3].
-Le taxon Hydrorion brachypterygius n'est pas reconnu par Paleobiology Database qui classe cette espèce dans le genre Microcleidus sous le taxon Microcleidus brachypterygius von Huene, 1923[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hydrorion a été créé en 2007 par la paléontologue allemande Franziska Grossmann (d).
+L'espèce Hydrorion brachypterygius a été initialement décrite en 1923 par le paléontologue allemand Friedrich von Huene (1875-1969) sous le protonyme de Plesiosaurus brachypterygius,.
+Le taxon Hydrorion brachypterygius n'est pas reconnu par Paleobiology Database qui classe cette espèce dans le genre Microcleidus sous le taxon Microcleidus brachypterygius von Huene, 1923.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Hydrorion :
 (en) Franziska Großmann, « The Taxonomic and Phylogenetic Position of the Plesiosauroidea from the Lower Jurassic Posidonia Shale of South‐West Germany », Palaeontology, Londres, Wiley-Blackwell et Palaeontological Association (d), vol. 50, no 3,‎ mai 2007, p. 545-564 (ISSN 0031-0239 et 1475-4983, OCLC 44674714 et 1761779, DOI 10.1111/J.1475-4983.2007.00654.X, lire en ligne)
